--- a/xlsx/加利福尼亚大学旧金山分校_intext.xlsx
+++ b/xlsx/加利福尼亚大学旧金山分校_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>加利福尼亚大学旧金山分校</t>
   </si>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E7%9B%A3</t>
   </si>
   <si>
-    <t>校監</t>
+    <t>校监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E7%94%9F</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -83,9 +83,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
@@ -101,37 +98,34 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>學士</t>
+    <t>学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%B0%E8%81%9E%E8%88%87%E4%B8%96%E7%95%8C%E5%A0%B1%E5%B0%8E</t>
   </si>
   <si>
-    <t>美國新聞與世界報導</t>
+    <t>美国新闻与世界报导</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>Template talk-加利福尼亞大學</t>
+    <t>Template talk-加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞大學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學柏克萊分校</t>
+    <t>加州大学柏克莱分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E6%88%B4%E7%B6%AD%E6%96%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學戴維斯分校</t>
+    <t>加利福尼亚大学戴维斯分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E5%93%88%E6%96%AF%E6%B1%80%E6%B3%95%E5%AD%A6%E9%99%A2</t>
@@ -143,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E7%88%BE%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學爾灣分校</t>
+    <t>加州大学尔湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%88%86%E6%A0%A1</t>
@@ -155,31 +149,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%86%B9%E5%BE%B7%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>美熹德加利福尼亞大學</t>
+    <t>美熹德加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%B2%B3%E6%BF%B1%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學河濱分校</t>
+    <t>加州大学河滨分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖地牙哥加利福尼亞大學</t>
+    <t>圣地牙哥加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E8%81%96%E5%A1%94%E8%8A%AD%E8%8A%AD%E6%8B%89%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學聖塔芭芭拉分校</t>
+    <t>加利福尼亚大学圣塔芭芭拉分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E9%AD%AF%E8%8C%B2%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖塔克魯茲加利福尼亞大學</t>
+    <t>圣塔克鲁兹加利福尼亚大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/UC_Davis_Medical_Center</t>
@@ -233,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%E5%88%A9%E7%A6%8F%E6%91%A9%E7%88%BE%E5%9C%8B%E5%AE%B6%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>勞倫斯利福摩爾國家實驗室</t>
+    <t>劳伦斯利福摩尔国家实验室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%96%AF%E9%98%BF%E6%8B%89%E8%8E%AB%E6%96%AF%E5%9B%BD%E5%AE%B6%E5%AE%9E%E9%AA%8C%E5%AE%A4</t>
@@ -245,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E5%85%8B%E5%A4%A9%E6%96%87%E5%8F%B0</t>
   </si>
   <si>
-    <t>凱克天文台</t>
+    <t>凯克天文台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%85%8B%E5%A4%A9%E6%96%87%E5%8F%B0</t>
@@ -263,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E5%A4%A7%E5%AD%B8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>金門大學 (美國)</t>
+    <t>金门大学 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -287,19 +281,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E8%97%9D%E8%A1%93%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加州藝術學院</t>
+    <t>加州艺术学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%90%8A%E6%81%A9%E5%9C%8B%E9%9A%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>亞萊恩國際大學</t>
+    <t>亚莱恩国际大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%95%B4%E5%90%88%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加利福尼亞整合學院</t>
+    <t>加利福尼亚整合学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%A4%A7%E5%AD%A6</t>
@@ -966,7 +960,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
         <v>4</v>
@@ -992,10 +986,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>14</v>
@@ -1021,10 +1015,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1050,10 +1044,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1079,10 +1073,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1108,10 +1102,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -1137,10 +1131,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1166,10 +1160,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1195,10 +1189,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1224,10 +1218,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1253,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1282,10 +1276,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1311,10 +1305,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1340,10 +1334,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1369,10 +1363,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1398,10 +1392,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1427,10 +1421,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1456,10 +1450,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1485,10 +1479,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1514,10 +1508,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1543,10 +1537,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1572,10 +1566,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1601,10 +1595,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1630,10 +1624,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1659,10 +1653,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1688,10 +1682,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1717,10 +1711,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1746,10 +1740,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1775,10 +1769,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1804,10 +1798,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -1833,10 +1827,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -1862,10 +1856,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -1891,10 +1885,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -1920,10 +1914,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1949,10 +1943,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -1978,10 +1972,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2007,10 +2001,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2036,10 +2030,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2065,10 +2059,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
